--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Декабрь 24" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Искажения" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Вопросы" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="270">
+  <si>
+    <t xml:space="preserve">№ позиции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Искажение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частые проявления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключевые слова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Навешивание
+ярлыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Присвоение себе или другим обобщённых,
+часто негативных характеристик, основанных
+на первом впечатлении, одиночном
+наблюдении или кратковременном
+опыте взаимодействия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пессимистичные обобщения
+2. Негативная оценка без достаточных доказательств
+3. Вынесение категоричных суждений
+4. Снижение самооценки
+5. Искажение восприятия личности
+6. Упрощение человеческих качеств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Никто, все, всё, ничто
+2. Всегда, никогда
+3. Постоянно, вечно
+4. Каждый раз, всё время
+5. Как всегда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативное
+прогнозирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожидание исключительно
+негативных исходов событий без
+достаточных оснований</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пессимистичный взгляд на будущее и ожидание неудач
+2. Игнорирование возможности положительных исходов
+3. Переоценка потенциальных рисков
+4. Недооценка собственных способностей справляться
+5. Восприятие негативного исхода как единственно возможного
+6. Чрезмерное внимание к прошлым негативных событиям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. А что, если…
+2. А вдруг…
+3. А может быть…
+4. Да, но…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фильтрация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сосредоточение внимания только на
+отрицательных аспектах ситуации,
+игнорирование положительных или
+нейтральных сторон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Фокус исключительно на негативных аспектах
+2. Игнорирование положительных сторон
+3. Склонность к отрицательно окрашенному восприятию
+4. Минимизация позитивной информации или пренебрежение ею
+5. Переоценка значимости отрицательныхдеталей
+6. Преуменьшение значимости положительных событий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Плохо, отвратительно
+2. Страшно
+3. Только
+4. Ничего особенного
+5. Так и должно быть
+6. Это просто везение
+7. Да, но…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магическое
+мышление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вера в то, что определённые мысли или
+действия могут оказывать
+необоснованное позитивное или
+негативное влияние на себя, других людей,
+события и окружающую реальность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Вера в приметы и суеверия
+2. Переоценка влияния собственных мыслей на реальность
+3. Соблюдение навязчивых действия для предотвращения
+«плохих» событий
+4. Приписывание обыденным предметам особых свойств
+5. Вера в предзнаменования и знаки
+6. Антропоморфизация природных явлений и сил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. А что, если…
+2. А вдруг…
+3. А может быть…
+4. Да, но…
+5. Если… то…
+6. Следует
+7. Необходимо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гиперобобщение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формирование категоричных
+обобщающих выводов, прогнозов
+и правил для сходных ситуаций на
+основании единичного опыта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Тенденция к пессимистичным обобщениям на основе
+отдельных случаев
+2. Игнорирование контрпримеров
+3. Категоричное восприятие личных недостатков
+4. Восприятие неудач как постоянного паттерна
+5. Чрезмерное упрощение причинно-следственных связей
+6. Уверенность в неизменности будущего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катастрофизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безосновательное преувеличение
+негативного характера прошлых,
+настоящих или будущих событий и их
+возведение в ранг катастрофы с
+необратимыми последствиями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Навязчивое представление худшего исхода событий
+2. Преувеличение вероятности неблагоприятного
+развития событий
+3. Игнорирование возможных позитивных исходов
+4. Чувство тревоги или паники по поводу будущего
+5. Постоянное предчувствие худшего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что, если…
+2. Всегда и никогда
+3. Нельзя
+4. Беда, катастрофа, ужас
+5. Никто, все, ничто
+6. Безнадежно, пропало,
+потеряно
+7. Ужасно, жутко
+8. Испуган, в ужасе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Персонализация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необоснованное принятие на себя
+ответственности за негативные события
+или вера в то, что всё происходящее
+связано лично с вами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Безосновательное возложение на себя 
+ответственности за внешние события
+2. Трактовка нейтральных обстоятельств 
+как значимых лично для себя
+3. Преувеличение собственного влияния на развитие ситуаций
+4. Пренебрежение объективными данными о собятиях
+5. Восприятие критики как личного унижения, без учета контекста
+6. Толкование обыденных поступков других как скрытых
+знаков в свой адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Из-за меня
+2. Мной
+3. Мне
+4. Обо мне
+5. Меня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Долженствование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Накладывание строгих, часто нереальных
+стандартов на себя или других, обычно
+с использованием слов «должен» или
+«необходимо»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Чрезмерно высокие требования к себе
+2. Необоснованные ожидания от других
+3. Разочарование из-за несоответсвия ожиданий реальности
+4. Постоянное ощущение долга
+5. Чувство вины за недостижение собственных стандартов
+6. Склонность к самокритике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Я должен
+2. Мне надо
+3. Я обязан
+4. Мне следует
+5. Необходимо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтение мыслей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убеждённость в том, что вы точно
+знаете чужие мысли и чувства, не имея
+реальных доказательств.
+Или, наоборот, ожидание, что другие
+люди должны знать выши мысли и чувства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Уверенность в знании чужих мыслей
+без словесного подтверждения
+2. Формирование непроверенных предположений
+о намерениях других
+3. Ошибочное убеждение в способности правильно
+трактовать неявные сигналы окружающих
+4. Принятие собственных предположений за
+неопровержимые факты
+5. Преувеличение своей способности интерпретировать
+чужие эмоции и мысли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Он/она думает
+2. Он/она считает
+3. Он/она точно знает
+4. Они должны понимать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перфекционизм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стремление к абсолютному совершенству
+во всём, что делаете вы или другие, часто
+выходящее за пределы возможного
+и разумного</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Стремление к безупречности
+2. Установка нереалистично высоких стандартов для себя и других
+3. Боязнь совершения ошибок
+4. Чрезмерная критичность к собственным достижения
+5. Прокрастинация или избегание задачи из страха
+не достичь идеала
+6. Фокус на недочётах, а не на ценности проделанной работы
+7. Чёрно-белое мышление, принцип «всё или ничего»
+8. Недовольство при достижении целей из-за незначительных
+недочётов
+9. Избыточная зацикленность на деталях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Совершенно
+2. Идеально
+3. Безупречно
+4. Максимально
+5. На все сто
+6. Или… или…</t>
+  </si>
   <si>
     <t xml:space="preserve">№ разбора</t>
   </si>
@@ -34,10 +311,10 @@
     <t xml:space="preserve">Деструктив</t>
   </si>
   <si>
-    <t xml:space="preserve">Описание</t>
-  </si>
-  <si>
     <t xml:space="preserve">Инсайты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тезисы</t>
   </si>
   <si>
     <t xml:space="preserve">Мои усилия значимы,
@@ -61,6 +338,14 @@
 к снижению самооценки.</t>
   </si>
   <si>
+    <t xml:space="preserve">собственная ценность
+признание и одобрение
+реакция окружающих
+обида и несправедливость
+внешние оценки
+снижение самооценки</t>
+  </si>
+  <si>
     <t xml:space="preserve">Над нашими отношениями
 можно работать</t>
   </si>
@@ -80,6 +365,18 @@
 изменений, которые доступны.</t>
   </si>
   <si>
+    <t xml:space="preserve">сложные обстоятельства
+грусть и сожаление
+чувство безысходности
+позитивные изменения
+изменения доступны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Негативное
+прогнозирование</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мои интересы ценны как
 забота о себе</t>
   </si>
@@ -93,20 +390,27 @@
   </si>
   <si>
     <t xml:space="preserve">1) Осознание значимости своих увлечений.
-2) Чувство вины и несостоятельности из-за нехватки времени
-и сил на них.
+2) Чувство вины и несостоятельности из-за 
+нехватки времени и сил на них.
 3) Такой подход усиливает чувство подавленности и постепенно
 подрывает самооценку.
 4) Создаётся впечатление, что потребности не заслуживают
 внимания, что может привести к эмоциональному выгоранию.</t>
   </si>
   <si>
+    <t xml:space="preserve">значимость увлечений
+вина и несостоятельность
+подавленность
+подрыв самооценки
+эмоциональное выгорание</t>
+  </si>
+  <si>
     <t xml:space="preserve">Жена вносит вклад через
 заботу с ребёнком</t>
   </si>
   <si>
-    <t xml:space="preserve">Жена фантазирует о будущем, не
-принимая реальность и не желая
+    <t xml:space="preserve">Жена фантазирует о будущем, 
+не принимая реальностьи не желая
 прикладывать усилия для
 улучшения ситуации</t>
   </si>
@@ -126,6 +430,13 @@
 неудовлетворённости.</t>
   </si>
   <si>
+    <t xml:space="preserve">готовность к самоанализу
+эмпатия
+напряжение в ожиданиях
+недоразумения
+чувство неудовлетворённости</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мой вклад в семью
 существенен</t>
   </si>
@@ -149,6 +460,13 @@
 и напряжённости в отношениях с близкими.</t>
   </si>
   <si>
+    <t xml:space="preserve">отрицание моей личности
+критика
+потребность в принятии
+отчуждение
+напряжённость в отношениях</t>
+  </si>
+  <si>
     <t xml:space="preserve">Я строю равноценные
 отношения с терапевтом</t>
   </si>
@@ -168,6 +486,12 @@
 3) Такой подход несёт риск укрепления недоверия к другим людям.
 4) Затрудняет выстраивание равноправных и безопасных отношений,
 даже когда реальность говорит об обратном.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">внешний контроль и власть
+чувство уязвимости
+недоверие к другим людям
+равноправные отношения</t>
   </si>
   <si>
     <t xml:space="preserve">Со мной всё в порядке</t>
@@ -191,6 +515,14 @@
 отношений с супругой, что скажется на семейной динамике.</t>
   </si>
   <si>
+    <t xml:space="preserve">вина как «плохость»
+забота о мнении близких
+сохранение отношений
+эмоциональные связи
+усиление вины
+обострение отношений</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мне отвечают, когда
 есть возможность</t>
   </si>
@@ -209,6 +541,14 @@
 особенно где это восприятие оказывается ошибочным.
 3) При таком подходе есть риск развития хронической
 неуверенности в себе и зависимости от внешнего одобрения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">самокритичность
+причина в своей ценности
+внутреннее напряжение
+снижение самооценки
+хроническая неуверенность
+зависимость от одобрения</t>
   </si>
   <si>
     <t xml:space="preserve">Можно не бояться
@@ -230,6 +570,587 @@
 естественных чувств.
 3) Это затрудняет принятие себя и развитие честного контакта
 с собственными переживаниями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реакции как «неуместные»
+внутренние ожидания
+социальные нормы
+усиление тревоги
+подавление чувств
+принятие себя
+контакт с переживаниями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я получаю больше
+как клиент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я достоин большего и лучшего,
+а не только быть клиентом
+в этих отношениях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Желание подружиться с девушкой-терапевтом,
+но страх невозможности из-за
+отношений «терапевт-клиент»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Оценка ценности отношений через степень близости и личной
+открытости другой стороны.
+2) Это может привести к недооценке уже существующих глубоких,
+профессионально значимых связей.
+3) Эта связь предлагает поддержку и внимение, недоступные
+в типичной дружбе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">степень близости
+открытость
+недооценка связей
+поддержка и внимание
+недоступность в дружбе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часть ответственности
+лежит на мне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я не могу должным образом
+контролировать происходящее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неравномерное и меняющееся отношение
+к терапевту между сессиями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность рассматривать изменчивость эмоций
+как нечто отрицательное.
+2) Изменчивость ассоциируется с потерей контроля.
+3) Важная часть самопознания.
+4) Это может привести к усилению внутреннего напряжения
+и ощущения неуверенности.
+5) Эмоции как угроза, а не как ресурс для понимания себя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изменчивость эмоций
+потеря контроля
+самопознание
+внутреннее напряжение
+неуверенность
+ресурс понимания себя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 1 — Навешивание ярлыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вверх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мои усилия значимы, даже если их
+не замечают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Какие факты или доказательства подтверждают мысль о том, что вы «ненужный» и «бесполезный»?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Есть ли примеры, которые могли бы показать, что вашу работу всё-таки замечают или ценят, даже если это не выражается словами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Были ли ситуации, где ваша работа или усилия по дому всё же приносили пользу или вызывали положительный результат?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если труд делает пространство более приятным и комфортным, даже для вас самого, как это соотносится с мыслью о том, что вы «ненужный» и «бесполезный»?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если обида и ощущение несправедливости связаны с тем, что ваши усилия не замечают, означает ли это, что вы действительно "ненужный" и "бесполезный"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если ваше желание получить признание остаётся неудовлетворённым, означает ли это, что сама ценность вашего труда и усилий уменьшается?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если ценность вашего труда сохраняется независимо от реакции окружающих, то насколько справедливо считать себя "ненужным" и "бесполезным"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если ваша любовь к порядку и внутреннее ощущение ценности уже помогают вам чувствовать себя важным, как вы теперь смотрите на первоначальную мысль о том, что вы "ненужный" и "бесполезный"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Как вы думаете, что может напоминать вам в будущем о том, что ваша ценность не зависит от внешнего признания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 2 — Негативное прогнозирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наши отношенрия обречены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Над нашими отношениями можно работать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что даёт вам уверенность в том, что ваши отношения действительно обречены?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А есть ли примеры ситуаций, когда в прошлом отношения всё-таки улучшались, пусть даже ненадолго?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если такие моменты всё же были, что в них тогда способствовало улучшению отношений, даже если это происходило редко?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если обоюдная искренность и разговоры в прошлом способствовали улучшению, полностью ли это исключено сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Но если бы возможность остаться наедине всё-таки появилась, как думаете, искренность и разговоры снова могли бы повлиять на ваши отношения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Раз вы допускаете такую возможность, насколько тогда справедливо утверждать, что ваши отношения обречены?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Как вы думаете, помогает ли вам вера в то, что ваши отношения обречены, справляться с текущими трудностями, или она больше усугубляет ваши переживания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если эта мысль больше усугубляет ваши переживания, как вы думаете, есть ли в ней что-то, что стоит подвергнуть сомнению?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если ранее вам удавалось переломить ситуацию, даже несмотря на сложности, что это говорит о том, насколько категорично утверждение, что сейчас ничего изменить нельзя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Как вы себя чувствуете, когда вместо обречённости вы видите свои отношения как нечто, над чем можно работать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 3 — Фильтрация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что мои интересы и увлечения
+ не важны, они не имеют смысла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мои интересы ценны как забота о себе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, на чем основана ваша мысль о том, что ваши интересы и увлечения не важны и не имеют смысла?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А если задуматься, отсутствие времени и сил действительно означает, что ваши увлечения не важны? Или это может говорить о чем-то другом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если это скорее о сложности, а не о важности, то можно ли сказать, что ваши увлечения все-таки имеют значение, даже если сейчас сложно уделить им время?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если они остаются важными, как вы думаете, что заставляет вас воспринимать их как лишенные смысла? Что придает этой мысли такую силу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. А если рассмотреть это с другой стороны: может ли временная сложность что-то делать означать, что это теряет смысл? Или смысл может сохраняться, даже если сейчас трудно этим заниматься?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если смысл сохраняется, даже несмотря на временные трудности, как эта мысль о "бессмысленности" ваших увлечений влияет на ваше внутреннее состояние и отношение к себе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. А если представить, что кто-то другой, близкий вам человек, чувствует себя так же — что он не имеет права на свои увлечения из-за обстоятельств, — какой совет или поддержку вы бы ему дали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если вы признаёте, что ваши увлечения важны и имеют смысл, даже несмотря на обстоятельства, что мешает вам воспринимать это с большей уверенностью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если вы уделяете своим увлечениям меньше внимания, это действительно уменьшает их значимость? Или это скорее временное ощущение, связанное с текущими обстоятельствами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если ваши увлечения остаются важными, даже несмотря на трудности, как это понимание может повлиять на то, как вы относитесь к себе и своим потребностям?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Как вы думаете, как может измениться ваше внутреннее состояние, если вы будете чаще напоминать себе о том, что ваши увлечения важны и имеют смысл, даже в непростых обстоятельствах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если вы связываете эту мысль с усталостью, а не с реальной правдой о ваших увлечениях, как вы могли бы напоминать себе об этом в моменты, когда она снова появляется?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если теперь вы осознаёте, что эта мысль была лишь следствием усталости и не отражала реальность, как вы можете воспринимать себя, свои увлечения и свои потребности с большей ясностью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Если ваши увлечения и потребности дороги и ценны для вас в любых обстоятельствах, как это может повлиять на то, как вы будете относиться к себе и своим мыслям в будущем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 4 — Магическое мышление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена фантазирует о будущем, не
+принимая реальность и не желая
+прикладывать усилия для
+улучшения ситуации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена вносит вклад через заботу с ребёнком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Какие доказательства у вас есть, что ваша жена действительно не принимает реальность и не хочет прикладывать усилия для улучшения ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А есть ли что-то в её действиях или словах, что может указывать на то, что она всё же старается улучшить вашу общую ситуацию, пусть и не так, как вы ожидаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Как вы думаете, возможно ли, что её текущие усилия направлены на семью, но выражаются в другой форме, нежели та, которую вы ожидаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если вы видите это, то как изменится ваше восприятие её поведения, если рассматривать её заботу о ребёнке как важную часть улучшения вашей общей ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если вы признаёте её вклад, как это влияет на вашу мысль о том, что она не принимает реальность и не желает прикладывать усилия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Что вы чувствуете, когда начинаете видеть её усилия с другой стороны и понимаете, что изначальная мысль была слишком категоричной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Как вы думаете, если в будущем снова возникнет подобная мысль, что поможет вам вспомнить её вклад и увидеть ситуацию более гибко?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, что могло побудить вас изначально воспринимать её поведение как недостаток усилий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если ваша работа и её забота о ребёнке – это разные формы вклада в семью, то что мешает вам воспринимать их как равноценные и важные?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если оба вклада важны, каким образом это осознание меняет вашу общую точку зрения на текущую ситуацию и ваши ожидания от жены?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Как вы думаете, если вы будете чаще помнить о её роли и вкладе, каким образом это может повлиять на ваши отношения и взаимопонимание?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 5 — Гиперобобщение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мой вклад в семью существенен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Как вы думаете, какие есть доказательства того, что вам действительно "не место в этой семье" и что вы "лишний"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Можно ли утверждать, что критика вашей тёщи — это однозначное свидетельство того, что вы "лишний" в семье?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Интересно, а как бы вы интерпретировали эти замечания, если бы могли рассмотреть их более отстранённо, без эмоциональной оценки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.  Скажите, а почему вы связываете эти замечания именно с вашим местом в семье, а не с обсуждением способов улучшить времяпрепровождение с дочкой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. А если задуматься, может ли быть так, что критикуют не вас как личность, а лишь определённый подход или привычку?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Всегда ли отказ от чего-то одного означает неприятие человека в целом?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если это так, то может ли критика быть способом выразить желание помочь или улучшить что-то, а не свидетельством того, что вам "не место в семье"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, какие есть примеры из вашей жизни, которые подтверждают, что вы важны и нужны в этой семье?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Могут ли такие действия быть подтверждением того, что вы занимаете своё место в семье и являетесь её ценным членом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Может ли быть, что ваша первоначальная мысль о том, что вы "лишний", была больше связана с моментами сомнения или эмоциями, чем с реальным положением дел?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Как вы думаете, что может помочь вам в будущем отличать такие эмоциональные всплески от реальных фактов о вашей значимости в семье?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 6 — Катастрофизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я строю равноценные отношения с терапевтом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что заставляет вас думать, что вы действительно попали в хитроумную ловушку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Что даёт вам уверенность в том, что её опыт в отношениях автоматически означает власть над вами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Есть ли какие-то конкретные доказательства, что она действительно направляет ваши отношения в нужную только ей сторону, а не просто предлагает свои взгляды или интерпретации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Интересно, если от вас тоже многое зависит, то можно ли сказать, что вы не полностью находитесь в её власти?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если это так, то можно ли рассмотреть ситуацию не как ловушку, а как взаимодействие, где у вас тоже есть выбор и влияние?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Как вы думаете, насколько полезно для вас продолжать видеть эту ситуацию как ловушку, если она больше не кажется вам таковой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если отказаться от идеи ловушки, как вы могли бы по-другому описать эту ситуацию, чтобы она больше соответствовала реальности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Что меняется для вас эмоционально, когда вы начинаете видеть эту ситуацию как равноправное взаимодействие, а не как ловушку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если вы согласны, что более гибкий взгляд приносит вам спокойствие, есть ли смысл время от времени задавать себе вопрос: "А что, если эта ситуация вовсе не ловушка?"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 7 — Навешивание ярлыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Как вы думаете, какие доказательства подтверждают мысль о том, что вы — плохой человек?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Какие конкретные действия вы совершили, которые могли бы подтвердить, что вы — плохой человек, или эта мысль основана только на ваших чувствах и предположениях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Как вы думаете, тот факт, что у вас сложился близкий эмоциональный контакт с подругой жены, автоматически делает вас плохим человеком, или это может говорить о чем-то другом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если это так, то почему вы считаете, что наличие этой связи делает вас плохим человеком? Что в этом, по вашему мнению, свидетельствует о вашей "плохости"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Как вы думаете, сам факт тайны означает, что вы плохой человек, или, возможно, это вызывает у вас чувство вины, которое вы интерпретируете как "плохость"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если чувство вины связано с возможной реакцией жены, то как вы думаете, это чувство говорит о том, что вы действительно "плохой человек", или о том, что для вас важно её мнение и отношения с ней?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если для вас важно мнение жены и ваши отношения с ней, можно ли сказать, что это качество скорее говорит о ваших ценностях и стремлении к уважению, чем о вашей "плохости"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, если посмотреть на эту ситуацию со стороны, как бы её оценил человек, который не вовлечён эмоционально?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если нейтральный человек видит в этом просто дружбу, что мешает вам воспринимать это так же?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если вы допускаете, что это может перейти в нечто большее, означает ли это, что оно уже перешло? Или это больше про ваши страхи и предположения, чем про реальные действия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если эти страхи и предположения не привязаны к реальности, насколько справедливо на их основе считать себя плохим человеком?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 8 — Персонализация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне отвечают, когда есть возможность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что заставляет вас думать, что вас действительно можно игнорировать и долго не отвечать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А как вы думаете, может ли быть объяснение тому, что терапевт отвечает через несколько часов, которое не связано с игнорированием вас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если это связано с её занятостью, а не с намерением вас игнорировать, то насколько точно ваше убеждение, что вас можно игнорировать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если это убеждение ложное, как вы думаете, какое другое объяснение ситуации могло бы быть для вас более полезным и менее болезненным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Как вам кажется, если вы будете воспринимать ситуацию именно так — что она отвечает, когда у неё есть возможность, — как это повлияет на ваши эмоции и отношение к этой ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если это новое понимание помогает вам чувствовать себя лучше и сохранять свою ценность, то насколько важно для вас пересмотреть своё первоначальное убеждение о том, что вас можно игнорировать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Что вы чувствуете сейчас, когда начинаете осознавать, что ваше первоначальное убеждение было не совсем точным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, что помогает вам сейчас удерживаться в этом более гибком и спокойном восприятии ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если вы будете чаще напоминать себе об этой мысли, как это может изменить ваше общее восприятие подобных ситуаций в будущем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если такие ситуации вызывают меньше тревоги, как это может повлиять на ваше общее ощущение себя и своих взаимоотношений с другими людьми?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Как вы думаете, что это говорит о вашей способности справляться с подобными мыслями и находить более здоровое их объяснение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 9 — Долженствование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно не бояться своих реакций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Как вы думаете, на каком основании вы пришли к выводу, что ваша реакция была неуместной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Что в самом факте возникновения сексуального возбуждения делает его, по вашему мнению, автоматически неуместным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Как вы думаете, означает ли отсутствие романтических отношений, что любые чувства или реакции, возникающие в процессе общения, являются неуместными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Что тогда, по вашему мнению, делает именно эту реакцию более "неуместной" по сравнению с другими чувствами, которые могли бы возникнуть в этом общении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если эта реакция говорит о симпатии и доверии к терапевту, почему она должна рассматриваться как неуместная, а не как естественная часть терапевтического процесса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Что изменится для вас, если вы позволите себе рассматривать эту реакцию как естественную, вместо того чтобы считать её неуместной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если эта реакция помогает вам почувствовать расслабленность и уменьшить тревогу, может ли она в этом случае быть не только допустимой, но и полезной для вашего процесса терапии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, что заставило вас изначально оценивать эту реакцию как что-то неправильное или недопустимое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Что именно в текущей ситуации, по вашему мнению, делает эту реакцию неподходящей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. А есть ли у вас какие-либо доказательства того, что эта реакция действительно помешала процессу терапии, или это больше предположение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если это только предположение, насколько оно для вас убедительно, и есть ли что-то, что могло бы это предположение поставить под сомнение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если нет доказательств неуместности этой реакции, как вы теперь оцениваете её значение в контексте вашей терапии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если вы признаёте её естественность и отсутствие причин для стыда, как это может повлиять на ваше отношение к себе и своему терапевтическому процессу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Если ваше первоначальное восприятие не соответствует реальности, как вы теперь можете взглянуть на свою реакцию с большей гибкостью и пониманием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 10 — Чтение мыслей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я получаю больше как клиент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что позволяет вам считать, что вы достойны большего и лучшего, чем быть только клиентом в этих отношениях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Вы упомянули хороший контакт и взаимный интерес. Как вы думаете, означает ли это, что ваша ценность как клиента в этих отношениях ограничивает или умаляет вас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. А что для вас означает «быть просто ценным клиентом»? Как вы понимаете эту роль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если с вами строят качественные и доверительные отношения, ценят ваши интересы, действительно ли это "просто"? Или, возможно, это уже значимая и ценная форма взаимодействия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если вы благодарны за этот подход, то что делает дружбу в данном случае «лучшей» или «большей» ценностью, чем те отношения, которые уже существуют?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Как вы думаете, если ваши отношения перейдут на уровень дружбы, то сохранится ли тот глубокий уровень внимания и поддержки, который сейчас есть в терапевтических отношениях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если в дружеских отношениях внимание может уменьшиться, а в текущих оно очень высокое, всё ли так однозначно в вашем убеждении, что дружба обязательно лучше этих отношений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, действительно ли знание о жизни, интересах и хобби терапевта сделает ваши отношения более значимыми для вас, чем та поддержка и внимание, которые вы сейчас получаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если нет точных подтверждений, что знание о жизни терапевта сделает отношения более значимыми, что тогда удерживает вас в убеждении, что дружба обязательно лучше текущих профессиональных отношений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Как вы думаете, станет ли качество этих встреч и времени однозначно таким же глубоким и полезным, как в ваших текущих отношениях? Лучше текущих профессиональных отношений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если нет гарантии, что качество отношений улучшится, стоит ли считать, что дружба обязательно принесёт вам больше, чем то, что вы уже имеете сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Но как вы думаете, может ли стремление к такому досугу ослабить ту уникальную поддержку и внимание, которые вы получаете сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если стремление к дружбе может ослабить ту уникальную поддержку, которую вы сейчас получаете, всё ли так однозначно в вашем убеждении, что вы достойны большего, чем быть клиентом в этих отношениях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Если вы начинаете сомневаться, то как теперь вы оцениваете значимость ваших текущих отношений с терапевтом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Если вы видите эти отношения как достаточно значимые на профессиональном уровне, возможно ли, что именно в этом формате они приносят вам наибольшую пользу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 11 — Перфекционизм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часть ответственности лежит на мне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, на чём основана ваша уверенность в том, что вы не можете должным образом контролировать происходящее?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Как вы думаете, действительно ли изменение вашего состояния и эмоций означает, что вы теряете контроль над происходящим?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если вы уделяете много времени размышлениям об этих эмоциях, означает ли это, что вы совсем не контролируете их? Или, возможно, это говорит о вашем стремлении разобраться в себе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если это желание разобраться в себе, можно ли сказать, что в каком-то смысле вы всё-таки сохраняете контроль, даже если эмоции меняются?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Что изменится для вас, если вы начнёте воспринимать свои эмоции как часть процесса самопознания, а не как потерю контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если изменчивость эмоций может дать вам больше уверенности в происходящем, возможно ли, что эти перемены не мешают контролю, а наоборот, помогают вам лучше понимать себя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если это действительно так, как теперь вы можете оценить мысль о том, что вы не можете должным образом контролировать происходящее?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вам кажется, помогает ли вам мысль о потере контроля двигаться вперёд в вашем процессе самопознания, или она больше мешает?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если эта мысль больше мешает, чем помогает, то как вам кажется, стоит ли ей придавать столько значения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если не стоит придавать ей столько значения, как вы могли бы теперь описать своё отношение к этой мысли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если эта мысль кажется сомнительной и нересурсной, как вы думаете, каким могло бы быть более полезное и гибкое отношение к вашим эмоциям и состояниям?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если вы начнёте воспринимать свои эмоции как возможность для исследования и познания себя, что это может изменить в вашем восприятии происходящего?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если происходящее станет меньше пугать и тревожить, то как теперь вы оцениваете своё изначальное убеждение о том, что вы не можете должным образом контролировать происходящее?</t>
   </si>
 </sst>
 </file>
@@ -240,7 +1161,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -276,13 +1197,62 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE7E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7E5"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDEE7E5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -292,14 +1262,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDEE7E5"/>
       </patternFill>
     </fill>
     <fill>
@@ -311,22 +1275,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDEE7E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -376,7 +1367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,31 +1380,119 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,7 +1508,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -442,11 +1521,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -461,13 +1540,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFDEE7E5"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -600,10 +1679,228 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="117.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="134.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,206 +1911,320 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="61.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="14" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="14" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="14" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>45628</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B6" s="14" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B7" s="14" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B8" s="14" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B9" s="14" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>45628</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B10" s="14" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B11" s="14" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>45629</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>45629</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>45629</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>45630</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>45631</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>45631</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>45631</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B12" s="14" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -825,4 +2236,1179 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K169"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="12.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="E138:H138"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="E156:H156"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="A10" display="1"/>
+    <hyperlink ref="B1" location="A22" display="2"/>
+    <hyperlink ref="C1" location="A35" display="3"/>
+    <hyperlink ref="D1" location="A52" display="4"/>
+    <hyperlink ref="E1" location="A66" display="5"/>
+    <hyperlink ref="F1" location="A80" display="6"/>
+    <hyperlink ref="G1" location="A92" display="7"/>
+    <hyperlink ref="H1" location="A106" display="8"/>
+    <hyperlink ref="I1" location="A120" display="9"/>
+    <hyperlink ref="J1" location="A137" display="10"/>
+    <hyperlink ref="K1" location="A155" display="11"/>
+    <hyperlink ref="I10" location="A1" display="Вверх"/>
+    <hyperlink ref="I22" location="A1" display="Вверх"/>
+    <hyperlink ref="I35" location="A1" display="Вверх"/>
+    <hyperlink ref="I52" location="A1" display="Вверх"/>
+    <hyperlink ref="I66" location="A1" display="Вверх"/>
+    <hyperlink ref="I80" location="A1" display="Вверх"/>
+    <hyperlink ref="I92" location="A1" display="Вверх"/>
+    <hyperlink ref="I106" location="A1" display="Вверх"/>
+    <hyperlink ref="I120" location="A1" display="Вверх"/>
+    <hyperlink ref="I137" location="A1" display="Вверх"/>
+    <hyperlink ref="I155" location="A1" display="Вверх"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Искажения" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="310">
   <si>
     <t xml:space="preserve">№ позиции</t>
   </si>
@@ -639,6 +639,72 @@
 ресурс понимания себя</t>
   </si>
   <si>
+    <t xml:space="preserve">Порой можно
+допускать ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я плохой водитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда выезжал на автостраду, не обратил
+внимания на скорость автомобиля на соседней
+полосе и перестроился в неё. Этому водителю
+пришлось снизить скорость и он поморгал
+мне фарами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность к излишней самокритике и стремлению
+к недостижимому идеалу.
+2) Это может создавать внутреннее напряжение и чувство
+вины за неибежные ошибки.
+3) Концентрация на негативных аспектах может подорвать
+уверенность в себе и привести к повышенной тревожности.
+4) Это опасно в ситуациях, требующих быстрого
+принятия решений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">самокритика
+недостижимой идеал
+вина за ошибки
+концентрация на негативе
+уверенность в себе
+тревожность
+опасность
+быстрое принятие решений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У меня есть возможность
+контролировать процесс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я словно марионетка в
+опытных руках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Во время сессии с девушкой психотерапевтом
+её предположение о возможном разводе с женой
+на фоне холодных отношений вызвало
+чувство страха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность основываться на предположениях и
+интерптетациях, которые не подкреплены фактами.
+2) Это усиливает внутреннюю тревогу и недоверие
+к окружающим.
+3) Такое восприятие может привести к укреплению чувства
+изоляции и препятствовать созданию искренних, доверительных
+отношений, включая терапевтические.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предположения
+интерпретации без фактов
+тревога и недоверие
+к окружающим
+укрепление изоляции
+препятствие к
+отношениям</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -672,7 +738,13 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 1 — Навешивание ярлыков</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 1 — Навешивание ярлыков | // моя работа по дому //</t>
   </si>
   <si>
     <t xml:space="preserve">Вверх</t>
@@ -709,7 +781,7 @@
     <t xml:space="preserve">9. Как вы думаете, что может напоминать вам в будущем о том, что ваша ценность не зависит от внешнего признания?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 2 — Негативное прогнозирование</t>
+    <t xml:space="preserve">Разбор 2 — Негативное прогнозирование | // отношения с Леной //</t>
   </si>
   <si>
     <t xml:space="preserve">Наши отношенрия обречены</t>
@@ -748,7 +820,7 @@
     <t xml:space="preserve">10. Как вы себя чувствуете, когда вместо обречённости вы видите свои отношения как нечто, над чем можно работать?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 3 — Фильтрация</t>
+    <t xml:space="preserve">Разбор 3 — Фильтрация | //  мои интересы //</t>
   </si>
   <si>
     <t xml:space="preserve">Что мои интересы и увлечения
@@ -800,7 +872,7 @@
     <t xml:space="preserve">14. Если ваши увлечения и потребности дороги и ценны для вас в любых обстоятельствах, как это может повлиять на то, как вы будете относиться к себе и своим мыслям в будущем?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 4 — Магическое мышление</t>
+    <t xml:space="preserve">Разбор 4 — Магическое мышление | // роль Лены в семье //</t>
   </si>
   <si>
     <t xml:space="preserve">Жена фантазирует о будущем, не
@@ -845,7 +917,7 @@
     <t xml:space="preserve">11. Как вы думаете, если вы будете чаще помнить о её роли и вкладе, каким образом это может повлиять на ваши отношения и взаимопонимание?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 5 — Гиперобобщение</t>
+    <t xml:space="preserve">Разбор 5 — Гиперобобщение | // мое место в семье //</t>
   </si>
   <si>
     <t xml:space="preserve">Мой вклад в семью существенен</t>
@@ -901,7 +973,7 @@
     <t xml:space="preserve">11. Как вы думаете, что может помочь вам в будущем отличать такие эмоциональные всплески от реальных фактов о вашей значимости в семье?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 6 — Катастрофизация</t>
+    <t xml:space="preserve">Разбор 6 — Катастрофизация | // отношения с Женей //</t>
   </si>
   <si>
     <t xml:space="preserve">Я строю равноценные отношения с терапевтом</t>
@@ -934,7 +1006,7 @@
     <t xml:space="preserve">9. Если вы согласны, что более гибкий взгляд приносит вам спокойствие, есть ли смысл время от времени задавать себе вопрос: "А что, если эта ситуация вовсе не ловушка?"?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 7 — Навешивание ярлыков</t>
+    <t xml:space="preserve">Разбор 7 — Навешивание ярлыков | // симпатия к Маше //</t>
   </si>
   <si>
     <t xml:space="preserve">1. Как вы думаете, какие доказательства подтверждают мысль о том, что вы — плохой человек?</t>
@@ -970,7 +1042,7 @@
     <t xml:space="preserve">11. Если эти страхи и предположения не привязаны к реальности, насколько справедливо на их основе считать себя плохим человеком?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 8 — Персонализация</t>
+    <t xml:space="preserve">Разбор 8 — Персонализация | // скорость ответа на сообщения //</t>
   </si>
   <si>
     <t xml:space="preserve">Мне отвечают, когда есть возможность</t>
@@ -1009,7 +1081,7 @@
     <t xml:space="preserve">11. Как вы думаете, что это говорит о вашей способности справляться с подобными мыслями и находить более здоровое их объяснение?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 9 — Долженствование</t>
+    <t xml:space="preserve">Разбор 9 — Долженствование | // сексуальное возбуждение на терапии //</t>
   </si>
   <si>
     <t xml:space="preserve">Можно не бояться своих реакций</t>
@@ -1057,7 +1129,7 @@
     <t xml:space="preserve">14. Если ваше первоначальное восприятие не соответствует реальности, как вы теперь можете взглянуть на свою реакцию с большей гибкостью и пониманием?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 10 — Чтение мыслей</t>
+    <t xml:space="preserve">Разбор 10 — Чтение мыслей | // мысль о дружбе с Женей //</t>
   </si>
   <si>
     <t xml:space="preserve">Я получаю больше как клиент</t>
@@ -1108,7 +1180,7 @@
     <t xml:space="preserve">15. Если вы видите эти отношения как достаточно значимые на профессиональном уровне, возможно ли, что именно в этом формате они приносят вам наибольшую пользу?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разбор 11 — Перфекционизм </t>
+    <t xml:space="preserve">Разбор 11 — Перфекционизм | // меняющиеся эмоции между сессиями //</t>
   </si>
   <si>
     <t xml:space="preserve">Часть ответственности лежит на мне</t>
@@ -1151,6 +1223,91 @@
   </si>
   <si>
     <t xml:space="preserve">13. Если происходящее станет меньше пугать и тревожить, то как теперь вы оцениваете своё изначальное убеждение о том, что вы не можете должным образом контролировать происходящее?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 12 — Навешивание ярлыков | // ошибка при вождении авто //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно порой допускать ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, пожалуйста, какие у вас есть доказательства в пользу того, что вы действительно плохой водитель?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А были ли у вас ситуации, когда вы водили автомобиль хорошо и без подобных ошибок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если чаще всего вы водите хорошо, как эти случаи соотносятся с мыслью о том, что вы "плохой водитель"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.  А как вы думаете, возможно ли вообще водить всегда идеально и никогда не совершать ошибок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Тогда, если ошибки неизбежны даже у хороших водителей, означает ли одна ошибка, что вы действительно плохой водитель?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если одна ошибка не делает вас плохим водителем, как бы вы могли описать себя как водителя, принимая во внимание и успешные моменты, и редкие ошибки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если вы признаёте, что чаще всего водите хорошо и допускаете редкие ошибки, как вам кажется, помогает ли мысль "я плохой водитель" объективно оценивать ваши способности за рулём?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вам кажется, что изменится в вашем отношении к себе и к вождению, если вы позволите себе ошибаться, признавая, что это нормально для любого водителя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если большее спокойствие помогает вам лучше справляться с вождением, как вы могли бы напоминать себе в подобных ситуациях, что ошибки — это естественная часть процесса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если напоминание о том, что все водители иногда ошибаются, помогает вам смотреть на такие ситуации спокойнее, как теперь кажется мысль "я плохой водитель"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 13 — Навешивание ярлыков | // тема развода на сессии //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я словно марионетка в опытных руках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У меня есть возможность контролировать
+процесс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что заставляет вас считать, что вы действительно словно марионетка в опытных руках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Какие примеры из реальной жизни подтверждают, что это утверждение точно описывает вашу ситуацию?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. А есть ли у вас какие-либо доказательства того, что терапевт действительно действует из корыстных целей, а не из желания помочь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если доказательств нет, что тогда заставляет вас чувствовать себя именно марионеткой в этой ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если предположить, что это просто профессиональное предположение, сделанное в рамках сессии, как тогда изменилось бы ваше восприятие этой ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Что мешает вам рассмотреть эту ситуацию именно с такой нейтральной позиции прямо сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. А какие реальные действия или слова терапевта указывают на её личный интерес в вашем разводе, а не на профессиональную заботу о вашем благополучии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как бы вы восприняли эту ситуацию, если бы полностью доверяли терапевту?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если такая интерпретация подразумевает заботу о вашем благополучии, как это меняет ваше ощущение того, что вы «словно марионетка в опытных руках»?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если это ощущение кажется вам неправдоподобным, как вы теперь могли бы описать свои чувства в этой ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Что, по вашему мнению, позволяет вам прийти к этому более спокойному состоянию сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если вы больше не ощущаете себя марионеткой, как это влияет на ваше восприятие самого процесса терапии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Как вы думаете, насколько полезно для вас в будущем придерживаться более нейтрального взгляда в подобных ситуациях, вместо того чтобы опираться на предположения?</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1318,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1209,6 +1366,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1367,7 +1535,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1494,6 +1662,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1897,10 +2073,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2227,6 +2403,58 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="n">
+        <v>45633</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2243,10 +2471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I195" activeCellId="0" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2258,47 +2486,52 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2384,1024 +2617,1216 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>128</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A22" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>134</v>
-      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
-        <v>145</v>
+      <c r="A35" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
-        <v>147</v>
-      </c>
+      <c r="A38" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28" t="s">
-        <v>162</v>
+      <c r="A52" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28" t="s">
-        <v>164</v>
-      </c>
+      <c r="A55" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="29" t="s">
+      <c r="A66" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
-        <v>177</v>
-      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30" t="s">
-        <v>180</v>
+      <c r="A73" s="28" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="s">
-        <v>183</v>
+      <c r="A76" s="30" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="29" t="s">
+      <c r="A80" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="28" t="s">
-        <v>190</v>
-      </c>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="28" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="29" t="s">
+      <c r="A92" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="27" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="28" t="s">
-        <v>200</v>
-      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="28" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="31" t="s">
+      <c r="A106" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="28" t="s">
-        <v>213</v>
-      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>221</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="29" t="s">
+      <c r="A120" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="28" t="s">
-        <v>226</v>
-      </c>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="28" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="29" t="s">
+      <c r="A137" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="28" t="s">
-        <v>242</v>
-      </c>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>254</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="28" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="29" t="s">
+      <c r="A155" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="28" t="s">
-        <v>259</v>
-      </c>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="28" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="28" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="28" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="28" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="28" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="28" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="28" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="28" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="33" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="E138:H138"/>
-    <mergeCell ref="A155:H155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="E156:H156"/>
+  <mergeCells count="39">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:H124"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="A158:H158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="A174:H174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="E175:H175"/>
+    <mergeCell ref="A187:H187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="E188:H188"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="A10" display="1"/>
-    <hyperlink ref="B1" location="A22" display="2"/>
-    <hyperlink ref="C1" location="A35" display="3"/>
-    <hyperlink ref="D1" location="A52" display="4"/>
-    <hyperlink ref="E1" location="A66" display="5"/>
-    <hyperlink ref="F1" location="A80" display="6"/>
-    <hyperlink ref="G1" location="A92" display="7"/>
-    <hyperlink ref="H1" location="A106" display="8"/>
-    <hyperlink ref="I1" location="A120" display="9"/>
-    <hyperlink ref="J1" location="A137" display="10"/>
-    <hyperlink ref="K1" location="A155" display="11"/>
-    <hyperlink ref="I10" location="A1" display="Вверх"/>
-    <hyperlink ref="I22" location="A1" display="Вверх"/>
-    <hyperlink ref="I35" location="A1" display="Вверх"/>
-    <hyperlink ref="I52" location="A1" display="Вверх"/>
-    <hyperlink ref="I66" location="A1" display="Вверх"/>
-    <hyperlink ref="I80" location="A1" display="Вверх"/>
-    <hyperlink ref="I92" location="A1" display="Вверх"/>
-    <hyperlink ref="I106" location="A1" display="Вверх"/>
-    <hyperlink ref="I120" location="A1" display="Вверх"/>
-    <hyperlink ref="I137" location="A1" display="Вверх"/>
-    <hyperlink ref="I155" location="A1" display="Вверх"/>
+    <hyperlink ref="A1" location="A13" display="1"/>
+    <hyperlink ref="B1" location="A25" display="2"/>
+    <hyperlink ref="C1" location="A38" display="3"/>
+    <hyperlink ref="D1" location="A55" display="4"/>
+    <hyperlink ref="E1" location="A69" display="5"/>
+    <hyperlink ref="F1" location="A83" display="6"/>
+    <hyperlink ref="G1" location="A95" display="7"/>
+    <hyperlink ref="H1" location="A109" display="8"/>
+    <hyperlink ref="I1" location="A123" display="9"/>
+    <hyperlink ref="J1" location="A140" display="10"/>
+    <hyperlink ref="K1" location="A158" display="11"/>
+    <hyperlink ref="L1" location="A174" display="12"/>
+    <hyperlink ref="A2" location="A187" display="13"/>
+    <hyperlink ref="I13" location="A1" display="Вверх"/>
+    <hyperlink ref="I25" location="A1" display="Вверх"/>
+    <hyperlink ref="I38" location="A1" display="Вверх"/>
+    <hyperlink ref="I55" location="A1" display="Вверх"/>
+    <hyperlink ref="I69" location="A1" display="Вверх"/>
+    <hyperlink ref="I83" location="A1" display="Вверх"/>
+    <hyperlink ref="I95" location="A1" display="Вверх"/>
+    <hyperlink ref="I109" location="A1" display="Вверх"/>
+    <hyperlink ref="I123" location="A1" display="Вверх"/>
+    <hyperlink ref="I140" location="A1" display="Вверх"/>
+    <hyperlink ref="I158" location="A1" display="Вверх"/>
+    <hyperlink ref="I174" location="A1" display="Вверх"/>
+    <hyperlink ref="I187" location="A1" display="Вверх"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="354">
   <si>
     <t xml:space="preserve">№ позиции</t>
   </si>
@@ -604,7 +604,7 @@
   </si>
   <si>
     <t xml:space="preserve">степень близости
-открытость
+личная открытость
 недооценка связей
 поддержка и внимание
 недоступность в дружбе</t>
@@ -705,6 +705,71 @@
 отношениям</t>
   </si>
   <si>
+    <t xml:space="preserve">Жена учитывает свои
+чувства и возможности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена беспомощна и как ребенок
+не может договориться с тёщей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена не может договориться со своей мамой
+о времени, чтобы у нас с женой было
+время для интима в квартире</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность к интерпретации поведения жены через
+призму её действий, которые вы воспринимаете как недосаток
+усилий ради ваших общих интересов.
+2) Этот способ мышления может привести к усилению обиды
+и отчуждения, особенно если вы не учитываете её внутреннюю
+борьбу и эмоциональные сложности, связанные с отношениями
+с матерью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поведение жены
+недостаток усилий
+общие интересы
+обида и отчуждение
+внутренняя борьба
+эмоциональные сложности
+отношения с матерью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я формирую
+гармоничные отношения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я недостаточно хорош,
+чтобы меня любили и принимали
+безусловно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дружеские и семейные отношения, где
+возникает ощущение недостойности
+безусловной любви и принятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность сосредотачиваться на ощущении дефицита в
+отношениях и в себе, что приводит к ощущению собственной
+«недостаточности».
+2) Это может создавать замкнутый круг: любые трудности в
+отношениях интерпретируются как подтверждение этой мысли.
+3) Такой фокус несет риск снижения самооценки и усиления
+чувства одиночества, что может затруднить построение
+здоровых и устойчивых связей в будущем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фокус на дефиците
+«недостаточность»
+трудности в отношениях
+замкнутый круг
+снижение самооценки
+усиление одиночества
+здоровые устойчивые
+связи в будущем</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -742,6 +807,12 @@
   </si>
   <si>
     <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Разбор 1 — Навешивание ярлыков | // моя работа по дому //</t>
@@ -1309,6 +1380,103 @@
   <si>
     <t xml:space="preserve">13. Как вы думаете, насколько полезно для вас в будущем придерживаться более нейтрального взгляда в подобных ситуациях, вместо того чтобы опираться на предположения?</t>
   </si>
+  <si>
+    <t xml:space="preserve">Разбор 14 — Навешивание ярлыков | // отношения жены с матерью //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена беспомощна и как ребенок не может
+договориться с тёщей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жена учитывает свои чувства и возможности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Какие у вас есть доказательства того, что ваша жена действительно "беспомощна и как ребёнок" в этой ситуации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А как вы думаете, есть ли какие-то обстоятельства или причины, которые могут мешать вашей жене вести этот разговор именно так, как вы ожидаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если у вашей жены сложные отношения с её матерью, то как это может влиять на её способность справляться с такими ситуациями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Раз это влияет не в лучшую сторону, как вы думаете, можно ли её поведение в этой ситуации воспринимать как беспомощность, или за ним могут стоять другие чувства или сложности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если за её поведением стоят чувства и сложности, как бы вы описали её действия в этой ситуации, если убрать ярлык "беспомощна и как ребёнок"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. А как вы думаете, почему для неё может быть сложно преодолеть эти чувства и сложности именно в этом контексте?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если это страх перед откровенным разговором, как вы думаете, этот страх делает её беспомощной или просто указывает на внутреннюю борьбу, с которой ей непросто справиться?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, если взглянуть на ситуацию с позиции её внутренней борьбы, а не с точки зрения того, что она "должна сделать", меняется ли ваше восприятие её действий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если ваше восприятие меняется в сторону понимания, как вы думаете, может ли это помочь вам по-другому воспринимать её поведение в подобных ситуациях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если это может помочь, как вы теперь оцениваете мысль о том, что ваша жена "беспомощна и как ребёнок"? Насколько она кажется вам точной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если эта мысль больше не кажется точной, какой более мягкий и реалистичный способ описать её поведение вы могли бы выбрать для себя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Как вам кажется, если смотреть на её поведение через эту новую точку зрения, как это может повлиять на ваши чувства к ней и к ситуации в целом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если вы будете смотреть на её поведение через эту призму уважения и тепла, как это может изменить вашу реакцию и подход к обсуждению подобных ситуаций в будущем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Как вам кажется, что вы чувствуете сейчас, когда мысль о "беспомощности" вашей жены уже не кажется такой точной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.  Если вы теперь чувствуете больше поддержки и участия со стороны жены, как это влияет на ваше общее восприятие ваших отношений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 15 — Навешивание ярлыков | // ощущение недостойности безусловной любви //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я формирую гармоничные отношения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, какие доказательства у вас есть, что эта мысль верна?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Как вы думаете, есть ли другие причины, кроме вашей недостаточности, которые могли бы объяснить эти разрывы или отвержение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если причина может быть в несовпадении интересов или поведении, означает ли это, что ваша ценность как человека и ваша способность быть любимым зависят только от этих факторов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если ваша ценность как человека не зависит от этих факторов, как тогда можно объяснить мысль, что вы "недостаточно хорош, чтобы вас любили и принимали безусловно"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если вы чувствуете дефицит, может ли это означать, что вы сосредотачиваетесь больше на том, чего не хватает, чем на том, что уже есть в ваших отношениях или в вас самих?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если вы действительно сосредотачиваетесь на недостатке, а не на том, что уже есть, как это может влиять на вашу уверенность в том, что вы достойны любви и принятия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если ваша уверенность снижается из-за фокуса на недостатке, насколько справедливым кажется вывод, что вы "недостаточно хорош", или возможно, это просто восприятие, связанное с вашим фокусом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если вы начнете рассматривать свои отношения и себя через более сбалансированную призму — замечая не только недостатки, но и свои сильные стороны, — как это могло бы повлиять на ваше ощущение любви и принятия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если так, то можно ли сказать, что ваше чувство недостойности любви и принятия — это не объективный факт, а то, что можно изменить, если смотреть на себя и свои отношения более полно и сбалансированно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если вы теперь видите эту мысль как изменяемую и зависящую от вашего восприятия, как иначе вы могли бы описать себя, вместо того чтобы говорить, что вы "недостаточно хорош для безусловной любви и принятия"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если вы видите себя как человека, который вкладывается в отношения и стремится их улучшить, что это говорит о ваших качествах и способности быть достойным любви и принятия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если у вас есть полное право быть достойным любви и принятия, как вы теперь относитесь к первоначальной мысли, что вы "недостаточно хорош, чтобы вас любили и принимали безусловно"?</t>
+  </si>
 </sst>
 </file>
 
@@ -1318,7 +1486,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1370,6 +1538,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1535,7 +1709,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1668,7 +1842,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2073,10 +2251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2455,6 +2633,58 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>45633</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>45636</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2471,10 +2701,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I195" activeCellId="0" sqref="I195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H238" activeCellId="0" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2492,48 +2722,52 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -2628,7 +2862,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2638,7 +2872,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2649,7 +2883,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -2657,52 +2891,52 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2712,18 +2946,18 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2731,57 +2965,57 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2791,18 +3025,18 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="27" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -2810,77 +3044,77 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -2890,18 +3124,18 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -2909,62 +3143,62 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2974,7 +3208,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2985,7 +3219,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="27" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -2993,62 +3227,62 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3058,7 +3292,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3069,7 +3303,7 @@
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="27" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3077,52 +3311,52 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -3132,7 +3366,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3151,62 +3385,62 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="28" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -3216,7 +3450,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3227,7 +3461,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
       <c r="E110" s="27" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
@@ -3235,62 +3469,62 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="28" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -3300,7 +3534,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3311,7 +3545,7 @@
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="27" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
@@ -3319,77 +3553,77 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="28" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -3399,7 +3633,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3410,7 +3644,7 @@
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="27" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
@@ -3418,82 +3652,82 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -3503,7 +3737,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,7 +3748,7 @@
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="27" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
@@ -3522,72 +3756,72 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="28" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="28" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="28" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="28" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="28" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="28" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="28" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="28" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="28" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="28" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -3597,7 +3831,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3608,7 +3842,7 @@
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
       <c r="E175" s="27" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
@@ -3616,57 +3850,57 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="28" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="28" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="28" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="28" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="28" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="28" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="28" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="28" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="28" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -3675,91 +3909,284 @@
       <c r="F187" s="25"/>
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
-      <c r="I187" s="32" t="s">
-        <v>130</v>
+      <c r="I187" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="29" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="27" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="33" t="s">
-        <v>297</v>
+      <c r="A189" s="28" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="33" t="s">
-        <v>298</v>
+      <c r="A190" s="28" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="33" t="s">
-        <v>299</v>
+      <c r="A191" s="28" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="33" t="s">
-        <v>300</v>
+      <c r="A192" s="28" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="33" t="s">
-        <v>301</v>
+      <c r="A193" s="28" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="33" t="s">
-        <v>302</v>
+      <c r="A194" s="28" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="33" t="s">
-        <v>303</v>
+      <c r="A195" s="28" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="33" t="s">
-        <v>304</v>
+      <c r="A196" s="28" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="33" t="s">
-        <v>305</v>
+      <c r="A197" s="28" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="33" t="s">
-        <v>306</v>
+      <c r="A198" s="28" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="33" t="s">
-        <v>307</v>
+      <c r="A199" s="28" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="33" t="s">
-        <v>308</v>
+      <c r="A200" s="28" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="33" t="s">
-        <v>309</v>
+      <c r="A201" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="25"/>
+      <c r="H203" s="25"/>
+      <c r="I203" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B222" s="33"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="34" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="45">
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:H14"/>
@@ -3799,6 +4226,12 @@
     <mergeCell ref="A187:H187"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="E188:H188"/>
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="E204:H204"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="E222:H222"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="A13" display="1"/>
@@ -3814,6 +4247,8 @@
     <hyperlink ref="K1" location="A158" display="11"/>
     <hyperlink ref="L1" location="A174" display="12"/>
     <hyperlink ref="A2" location="A187" display="13"/>
+    <hyperlink ref="B2" location="A203" display="14"/>
+    <hyperlink ref="C2" location="A221" display="15"/>
     <hyperlink ref="I13" location="A1" display="Вверх"/>
     <hyperlink ref="I25" location="A1" display="Вверх"/>
     <hyperlink ref="I38" location="A1" display="Вверх"/>
@@ -3827,6 +4262,8 @@
     <hyperlink ref="I158" location="A1" display="Вверх"/>
     <hyperlink ref="I174" location="A1" display="Вверх"/>
     <hyperlink ref="I187" location="A1" display="Вверх"/>
+    <hyperlink ref="I203" location="A1" display="Вверх"/>
+    <hyperlink ref="I221" location="A1" display="Вверх"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Искажения" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="405">
   <si>
     <t xml:space="preserve">№ позиции</t>
   </si>
@@ -770,6 +770,67 @@
 связи в будущем</t>
   </si>
   <si>
+    <t xml:space="preserve">Любовь не зависит
+от достижений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я должен быть лучше,
+чтобы заслужить любовь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обсуждение дефицита любви к себе на
+сессии с терапевтом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Глубокая убеждённость в том, что любовь всегда обусловлена
+достижениями.
+2) Это связано с детским опытом, где внимание и признание
+родителей ощущалось как зависящее от моих успехов.
+3) Этот взгляд усиливает чувство собственной недостаточности,
+приводит к постоянному стремлению к совершенству.
+4) Истощает эмоциональные ресурсы и затрудняет
+построение близких, безусловных отношений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">убеждённость
+достижения
+детский опыт
+успехи
+собственная недостаточность
+стремление к совершенству
+эмоциональные ресурсы
+близкие отношения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прогресс сохраняется
+при продолжении
+терапии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я не вижу своего прогресса
+и улучшения состояния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обсуждение базовых потребностей и осознание
+большого количества дефицитов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность оценивать состояние через объективные, чётко
+измеримые показатели, что может вести к недооценке субъективных,
+но значимых изменений.
+2) Такой подход может не только усиливать чувство застоя, но
+и создавать риск потери мотивации, так как
+мелкие, но важные достижения остаются незамеченными.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объективные показатели
+недооценка изменений
+чувство застоя
+риск потери мотивации
+мелкие достижения
+остаются незамеченными</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -813,6 +874,12 @@
   </si>
   <si>
     <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">Разбор 1 — Навешивание ярлыков | // моя работа по дому //</t>
@@ -1477,6 +1544,125 @@
   <si>
     <t xml:space="preserve">12. Если у вас есть полное право быть достойным любви и принятия, как вы теперь относитесь к первоначальной мысли, что вы "недостаточно хорош, чтобы вас любили и принимали безусловно"?</t>
   </si>
+  <si>
+    <t xml:space="preserve">Разбор 16 — Долженствование | // убежденность, что любовь нужно заслужить //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я должен быть лучше, чтобы заслужить любовь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любовь не зависит от убеждений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Какие доказательства есть в пользу того, что вы действительно должны быть лучше, чтобы заслужить любовь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Что заставляет вас думать, что любовь можно заслужить только через определённые качества, а не просто за то, кто вы есть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если в детстве любовь часто связывалась с вашими успехами, означает ли это, что любовь всегда должна быть обусловлена достижениями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. А как вы думаете, могли ли ваши родители ценить вас не только за успехи, но просто за то, что вы их ребёнок, даже если они не всегда выражали это явно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если вы сомневаетесь в этом, то как вы объясняете тот факт, что родители всё же оставались рядом с вами, заботились о вас или уделяли вам внимание, даже когда вы не добивались успехов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если это была лишь обязанность, как вы думаете, могли ли они при этом испытывать к вам чувства, которые не зависели от ваших успехов, даже если они не умели их показать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Но если представить, что кто-то другой, не вы, рос бы в похожих условиях — вы бы сказали, что любовь к нему могла существовать, даже если она выражалась через требования или ожидания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если любовь всегда обусловлена достижениями, как вы объясните случаи, когда люди любят друг друга, несмотря на их ошибки, слабости или отсутствие успехов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. А как вы думаете, почему вам кажется странным, что кто-то может любить другого человека просто за то, какой он есть, а не за его успехи?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если ваш жизненный опыт не включал таких примеров, означает ли это, что такие чувства в принципе не могут существовать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Тогда как вы думаете, если такие чувства всё же существуют, возможно ли, что и вы способны быть любимым просто за то, кто вы есть, а не за то, что вы делаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Что заставляет вас думать, что способность быть любимым — это что-то, что нужно заслужить или развить, а не то, что уже есть в каждом человеке по своей природе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. А есть ли в вашей жизни люди, которые продолжают общаться с вами или быть рядом, даже когда вы не стараетесь что-то доказывать или достигать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Если это так, как вы объясните, почему они продолжают общение не только из чувства долга, но, возможно, ещё и по собственной инициативе, даже когда могли бы этого не делать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Если это всего лишь привычка, то почему, как вы думаете, они выбирают поддерживать именно эту привычку — быть рядом с вами, а не, например, прекратить общение?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. А если задуматься, возможно ли, что эти «блага» — это не только ваши действия или достижения, но и вы сами: ваша личность, ваши качества, то, как вы есть в их жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Если рассмотреть это с этой стороны, как вы думаете, возможно ли, что люди ценят вас не только за то, что вы делаете, но и просто за то, каким вы являетесь для них?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Если допустить, что это возможно, как вам кажется, что это меняет в вашем убеждении, что любовь нужно заслуживать, становясь лучше?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Если эти сомнения начинают появляться, как вы думаете, что для вас важнее: продолжать верить, что любовь нужно заслуживать, или допустить, что её можно получать просто за то, какой вы есть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. И если вы допускаете это, что вы чувствуете по отношению к своему убеждению, что нужно быть лучше, чтобы заслужить любовь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 17 — Фильтрация | // прогресс в терапии //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я не вижу своего прогресса и
+улучшения состояния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прогресс сохраняется при продолжении
+терапии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что убеждает вас в том, что вы действительно не видите прогресса или улучшения своего состояния?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Если ощущение ухудшения возникает после сеансов, означает ли это, что прогресса действительно нет, или это может быть частью какого-то процесса, который вы пока не до конца понимаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если это сопротивление изменениям, как вы думаете, может ли оно быть временным явлением, которое не отменяет общий прогресс?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если вы допускаете, что это временно, какие признаки, даже самые маленькие, могут свидетельствовать о том, что прогресс всё же есть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если ваш терапевт замечает ваши усилия и продолжает работать с уверенностью в вашем процессе, может ли это указывать на то, что прогресс виден со стороны, даже если вам пока сложно его ощутить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Что мешает вам заметить этот прогресс с вашей стороны?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. А какие именно объективные показатели могли бы для вас стать доказательством того, что состояние действительно улучшается?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если пока проблемы обсуждаются с разных сторон, может ли это быть важным шагом для их более глубокого понимания и, как следствие, их постепенного разрешения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если понимание проблем становится глубже, даже сейчас, разве это не может быть одним из тех самых признаков прогресса, который вы искали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если это так, как вы теперь смотрите на мысль о том, что вы не видите своего прогресса и улучшения состояния?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Что вызывает ваши сомнения в том, что более глубокое понимание проблем может быть прогрессом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если вы признаёте, что более глубокое понимание проблем — это часть прогресса, можно ли сказать, что ваш прогресс всё же существует, хоть и проявляется не так явно, как вам хотелось бы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если вы теперь видите, что прогресс есть, даже в его малозаметных проявлениях, как это меняет ваше отношение к первоначальной мысли о том, что вы не видите своего прогресса и улучшения состояния?</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,7 +1672,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1534,18 +1720,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1709,7 +1883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1839,14 +2013,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2251,10 +2417,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2685,6 +2851,58 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>45638</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>45638</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2701,10 +2919,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L234"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H238" activeCellId="0" sqref="H238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2722,54 +2940,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+        <v>150</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2862,7 +3084,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2872,7 +3094,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2883,7 +3105,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -2891,52 +3113,52 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2946,18 +3168,18 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2965,57 +3187,57 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3025,18 +3247,18 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="27" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -3044,77 +3266,77 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3124,18 +3346,18 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="27" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -3143,62 +3365,62 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3208,7 +3430,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3219,7 +3441,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="27" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -3227,62 +3449,62 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="30" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3292,7 +3514,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3303,7 +3525,7 @@
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="27" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3311,52 +3533,52 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -3366,7 +3588,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3385,62 +3607,62 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -3450,7 +3672,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3461,7 +3683,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
       <c r="E110" s="27" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
@@ -3469,62 +3691,62 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="28" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -3534,7 +3756,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3545,7 +3767,7 @@
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="27" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
@@ -3553,77 +3775,77 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="28" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -3633,7 +3855,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,7 +3866,7 @@
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="27" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
@@ -3652,82 +3874,82 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -3737,7 +3959,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3748,7 +3970,7 @@
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="27" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
@@ -3756,72 +3978,72 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="28" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="28" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="28" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="28" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="28" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="28" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="28" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="28" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="28" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="28" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -3831,7 +4053,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3842,7 +4064,7 @@
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
       <c r="E175" s="27" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
@@ -3850,57 +4072,57 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="28" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="28" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="28" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="28" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="28" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="28" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="28" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="28" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="28" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="28" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -3910,18 +4132,18 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="29" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="27" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
@@ -3929,72 +4151,72 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="28" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="28" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="28" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="28" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="28" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="28" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="28" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="28" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="28" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="28" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="28" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="28" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="28" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="25" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
@@ -4004,18 +4226,18 @@
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
       <c r="I203" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="29" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="27" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F204" s="27"/>
       <c r="G204" s="27"/>
@@ -4023,82 +4245,82 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="28" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="28" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="28" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="28" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="28" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="28" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="28" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="28" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="28" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="28" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="28" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="28" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="28" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="28" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="28" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B221" s="25"/>
       <c r="C221" s="25"/>
@@ -4107,86 +4329,312 @@
       <c r="F221" s="25"/>
       <c r="G221" s="25"/>
       <c r="H221" s="25"/>
-      <c r="I221" s="32" t="s">
-        <v>142</v>
+      <c r="I221" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="33" t="s">
+      <c r="A222" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B222" s="33"/>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
       <c r="E222" s="27" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F222" s="27"/>
       <c r="G222" s="27"/>
       <c r="H222" s="27"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="34" t="s">
-        <v>342</v>
+      <c r="A223" s="28" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="34" t="s">
-        <v>343</v>
+      <c r="A224" s="28" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="34" t="s">
-        <v>344</v>
+      <c r="A225" s="28" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="34" t="s">
-        <v>345</v>
+      <c r="A226" s="28" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="34" t="s">
-        <v>346</v>
+      <c r="A227" s="28" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="34" t="s">
-        <v>347</v>
+      <c r="A228" s="28" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="34" t="s">
-        <v>348</v>
+      <c r="A229" s="28" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="34" t="s">
-        <v>349</v>
+      <c r="A230" s="28" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="34" t="s">
-        <v>350</v>
+      <c r="A231" s="28" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="34" t="s">
-        <v>351</v>
+      <c r="A232" s="28" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="34" t="s">
-        <v>352</v>
+      <c r="A233" s="28" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="34" t="s">
-        <v>353</v>
-      </c>
+      <c r="A234" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="25"/>
+      <c r="E236" s="25"/>
+      <c r="F236" s="25"/>
+      <c r="G236" s="25"/>
+      <c r="H236" s="25"/>
+      <c r="I236" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B259" s="25"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="25"/>
+      <c r="E259" s="25"/>
+      <c r="F259" s="25"/>
+      <c r="G259" s="25"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B260" s="29"/>
+      <c r="C260" s="29"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F260" s="27"/>
+      <c r="G260" s="27"/>
+      <c r="H260" s="27"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="51">
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:H14"/>
@@ -4232,6 +4680,12 @@
     <mergeCell ref="A221:H221"/>
     <mergeCell ref="A222:D222"/>
     <mergeCell ref="E222:H222"/>
+    <mergeCell ref="A236:H236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="E237:H237"/>
+    <mergeCell ref="A259:H259"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="E260:H260"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="A13" display="1"/>
@@ -4249,6 +4703,8 @@
     <hyperlink ref="A2" location="A187" display="13"/>
     <hyperlink ref="B2" location="A203" display="14"/>
     <hyperlink ref="C2" location="A221" display="15"/>
+    <hyperlink ref="D2" location="A236" display="16"/>
+    <hyperlink ref="E2" location="A259" display="17"/>
     <hyperlink ref="I13" location="A1" display="Вверх"/>
     <hyperlink ref="I25" location="A1" display="Вверх"/>
     <hyperlink ref="I38" location="A1" display="Вверх"/>
@@ -4264,6 +4720,8 @@
     <hyperlink ref="I187" location="A1" display="Вверх"/>
     <hyperlink ref="I203" location="A1" display="Вверх"/>
     <hyperlink ref="I221" location="A1" display="Вверх"/>
+    <hyperlink ref="I236" location="A1" display="Вверх"/>
+    <hyperlink ref="I259" location="A1" display="Вверх"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Искажения" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="430">
   <si>
     <t xml:space="preserve">№ позиции</t>
   </si>
@@ -831,6 +831,37 @@
 остаются незамеченными</t>
   </si>
   <si>
+    <t xml:space="preserve">Общение строится
+на обоюдных
+возможностях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общение со мной
+становится опасным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подруга жены эмоционально отстраняется
+в переписке после того, как я прямо
+высказал симпатию через комплименты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность интерпретировать поведение других людей
+через призму собственных эмоциональных реакций, что может
+приводить к поспешным выводам.
+2) Этот подход несёт риск усиления внутреннего напряжения и
+искажения восприятия отношений.
+3) Это может повлиять на мою уверенность и качество
+общения с окружающими.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поведение других людей
+поспешные выводы
+внутреннее напряжение
+искажение восприятия
+уверенность
+качество общения</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -880,6 +911,9 @@
   </si>
   <si>
     <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">Разбор 1 — Навешивание ярлыков | // моя работа по дому //</t>
@@ -1662,6 +1696,64 @@
   </si>
   <si>
     <t xml:space="preserve">13. Если вы теперь видите, что прогресс есть, даже в его малозаметных проявлениях, как это меняет ваше отношение к первоначальной мысли о том, что вы не видите своего прогресса и улучшения состояния?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разборт 18 — Катастрофизация | // подруга отстраняется после моей симпатии //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общение со мной становится опасным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общение строится на обоюдных
+возможностях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, какие доказательства у вас есть, что общение с вами действительно становится опасным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А есть ли какие-либо конкретные действия или слова с её стороны, которые прямо подтверждают, что она воспринимает ваши слова именно так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если она об этом не сообщала, то на чём тогда основано ваше убеждение, что она воспринимает это именно таким образом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. А может ли быть какое-то другое объяснение её дистанции, помимо того, что она считает общение с вами опасным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  Если рассматривать эти возможные объяснения, как они меняют ваше восприятие её поведения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если ваше восприятие становится более спокойным при таких объяснениях, то насколько полезно для вас продолжать считать, что общение с вами становится опасным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если это бесполезно, то как вам кажется, что удерживало вас в этой мысли до сих пор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если теперь вы понимаете, что ваша интерпретация могла быть продиктована эмоциями, как вы могли бы взглянуть на эту ситуацию с более нейтральной точки зрения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если вы допускаете такие нейтральные объяснения, как это влияет на ваши чувства по отношению к её поведению?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если злость уходит, как вам кажется, может ли эта ситуация быть не столько про «опасность общения», сколько про ваши ожидания и переживания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если это так, то как теперь вы оцениваете мысль «общение со мной становится опасным»? Насколько она кажется вам точной или полезной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если эта мысль неточна и бесполезна, как вам кажется, какой более гибкий и спокойный взгляд на ситуацию может вам сейчас подойти?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Если вы будете смотреть на ситуацию с этой точки зрения, что изменится в вашем восприятии и отношении к общению с ней?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Если вы будете относиться спокойнее, как это может повлиять на ваши дальнейшие мысли и чувства в подобных случаях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Если ваши мысли станут менее эмоциональными, как вам кажется, будет ли легче поддерживать более тёплое и доверительное общение с другими?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Если вы видите, что более гибкий взгляд помогает вам сохранять спокойствие и улучшать общение, насколько теперь важно для вас отпускать прежние категоричные мысли в подобных ситуациях?</t>
   </si>
 </sst>
 </file>
@@ -2417,10 +2509,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2903,6 +2995,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2919,10 +3037,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A255" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A293" activeCellId="0" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2940,59 +3058,61 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="24"/>
+        <v>157</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="1"/>
@@ -3084,7 +3204,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3094,7 +3214,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3105,7 +3225,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -3113,52 +3233,52 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3168,18 +3288,18 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -3187,57 +3307,57 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3247,18 +3367,18 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="27" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -3266,77 +3386,77 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3346,18 +3466,18 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="27" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -3365,62 +3485,62 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3430,7 +3550,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,7 +3561,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="27" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -3449,62 +3569,62 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3514,7 +3634,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3525,7 +3645,7 @@
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="27" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3533,52 +3653,52 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -3588,7 +3708,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3607,62 +3727,62 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="28" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -3672,7 +3792,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3683,7 +3803,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
       <c r="E110" s="27" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
@@ -3691,62 +3811,62 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="28" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -3756,7 +3876,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3767,7 +3887,7 @@
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
@@ -3775,77 +3895,77 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="28" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -3855,7 +3975,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3866,7 +3986,7 @@
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="27" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
@@ -3874,82 +3994,82 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -3959,7 +4079,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3970,7 +4090,7 @@
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="27" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
@@ -3978,72 +4098,72 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="28" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="28" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="28" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="28" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="28" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="28" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="28" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="28" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="28" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="28" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="28" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -4053,7 +4173,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4064,7 +4184,7 @@
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
       <c r="E175" s="27" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
@@ -4072,57 +4192,57 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="28" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="28" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="28" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="28" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="28" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="28" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="28" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="28" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="28" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -4132,18 +4252,18 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="29" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="27" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
@@ -4151,72 +4271,72 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="28" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="28" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="28" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="28" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="28" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="28" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="28" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="28" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="28" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="28" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="28" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="28" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="28" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="25" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
@@ -4226,18 +4346,18 @@
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
       <c r="I203" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="29" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="27" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F204" s="27"/>
       <c r="G204" s="27"/>
@@ -4245,82 +4365,82 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="28" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="28" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="28" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="28" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="28" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="28" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="28" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="28" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="28" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="28" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="28" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="28" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="28" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="28" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="28" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B221" s="25"/>
       <c r="C221" s="25"/>
@@ -4330,7 +4450,7 @@
       <c r="G221" s="25"/>
       <c r="H221" s="25"/>
       <c r="I221" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4341,7 +4461,7 @@
       <c r="C222" s="29"/>
       <c r="D222" s="29"/>
       <c r="E222" s="27" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F222" s="27"/>
       <c r="G222" s="27"/>
@@ -4349,67 +4469,67 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="28" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="28" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="28" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="28" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="28" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="28" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="28" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="28" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="28" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="28" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="28" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="28" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
@@ -4419,18 +4539,18 @@
       <c r="G236" s="25"/>
       <c r="H236" s="25"/>
       <c r="I236" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="29" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
       <c r="E237" s="27" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F237" s="27"/>
       <c r="G237" s="27"/>
@@ -4438,107 +4558,107 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="28" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="28" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="28" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="28" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="28" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="28" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="28" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="28" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="28" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="28" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="28" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="28" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="28" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="28" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="28" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="28" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="28" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="28" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="28" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="28" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
@@ -4548,18 +4668,18 @@
       <c r="G259" s="25"/>
       <c r="H259" s="25"/>
       <c r="I259" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="29" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
       <c r="D260" s="29"/>
       <c r="E260" s="27" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
@@ -4567,74 +4687,183 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="28" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="32" t="s">
-        <v>393</v>
+      <c r="A262" s="28" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="32" t="s">
-        <v>394</v>
+      <c r="A263" s="28" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="32" t="s">
-        <v>395</v>
+      <c r="A264" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="32" t="s">
-        <v>396</v>
+      <c r="A265" s="28" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="32" t="s">
-        <v>397</v>
+      <c r="A266" s="28" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="32" t="s">
-        <v>398</v>
+      <c r="A267" s="28" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="32" t="s">
-        <v>399</v>
+      <c r="A268" s="28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="32" t="s">
-        <v>400</v>
+      <c r="A269" s="28" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="32" t="s">
-        <v>401</v>
+      <c r="A270" s="28" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="32" t="s">
-        <v>402</v>
+      <c r="A271" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="32" t="s">
-        <v>403</v>
+      <c r="A272" s="28" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="32" t="s">
-        <v>404</v>
+      <c r="A273" s="28" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="28"/>
     </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="25"/>
+      <c r="E275" s="25"/>
+      <c r="F275" s="25"/>
+      <c r="G275" s="25"/>
+      <c r="H275" s="25"/>
+      <c r="I275" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="B276" s="29"/>
+      <c r="C276" s="29"/>
+      <c r="D276" s="29"/>
+      <c r="E276" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F276" s="27"/>
+      <c r="G276" s="27"/>
+      <c r="H276" s="27"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="32" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="54">
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:H14"/>
@@ -4686,6 +4915,9 @@
     <mergeCell ref="A259:H259"/>
     <mergeCell ref="A260:D260"/>
     <mergeCell ref="E260:H260"/>
+    <mergeCell ref="A275:H275"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="E276:H276"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="A13" display="1"/>
@@ -4705,6 +4937,7 @@
     <hyperlink ref="C2" location="A221" display="15"/>
     <hyperlink ref="D2" location="A236" display="16"/>
     <hyperlink ref="E2" location="A259" display="17"/>
+    <hyperlink ref="F2" location="A275" display="18"/>
     <hyperlink ref="I13" location="A1" display="Вверх"/>
     <hyperlink ref="I25" location="A1" display="Вверх"/>
     <hyperlink ref="I38" location="A1" display="Вверх"/>
@@ -4722,6 +4955,7 @@
     <hyperlink ref="I221" location="A1" display="Вверх"/>
     <hyperlink ref="I236" location="A1" display="Вверх"/>
     <hyperlink ref="I259" location="A1" display="Вверх"/>
+    <hyperlink ref="I275" location="A1" display="Вверх"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/psychology/CBT_new/mira.xlsx
+++ b/psychology/CBT_new/mira.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="471">
   <si>
     <t xml:space="preserve">№ позиции</t>
   </si>
@@ -862,6 +862,67 @@
 качество общения</t>
   </si>
   <si>
+    <t xml:space="preserve">Большинство ко мне
+относятся с уважением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меня каждый может
+обидеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коллега поднял тему моего опыта участия в
+драках и возможности постоять за себя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Склонность обобщать негативный опыт из прошлого.
+2) Приводит к убеждению о беззащитности перед
+потенциальной агрессией.
+3) Это удерживает в состоянии постоянного напряжения и
+недоверия к окружающим, что может в перспективе
+способствовать усилению чувства беспомощности и
+изоляции.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">негативный опыт прошлого
+беззащитность
+потенциальная агрессия
+постоянное напряжение
+недоверие к окружающим
+усиление беспомощности
+изоляция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучше через диалог
+просить поддержки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие заслуживают такую же
+боль, которую приходится
+терпеть мне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поездка с матерью в машине, приведшая к 
+мыслям об убийстве собирательного образа 
+девушки как отражение холодных отношений с
+ матерью и непонимания друг друга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Стремление к эмоциональной связи с другими людьми.
+2) Выбор пути, которые приводит к обратному результату -
+к отчуждению и усилению внутренней боли.
+3) Продолжение такого подхода может закрепить чувство изоляции
+и разочарования, усугубить эмоциональное одиночество и мешать
+найти конструктивные способы выражения своих переживаний.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эмоциональная связь
+обратный результат
+отчуждение и усиление боли
+чувство изоляции
+разочарование, одиночество
+конструктивные способы</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -914,6 +975,12 @@
   </si>
   <si>
     <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
   </si>
   <si>
     <t xml:space="preserve">Разбор 1 — Навешивание ярлыков | // моя работа по дому //</t>
@@ -1698,7 +1765,7 @@
     <t xml:space="preserve">13. Если вы теперь видите, что прогресс есть, даже в его малозаметных проявлениях, как это меняет ваше отношение к первоначальной мысли о том, что вы не видите своего прогресса и улучшения состояния?</t>
   </si>
   <si>
-    <t xml:space="preserve">Разборт 18 — Катастрофизация | // подруга отстраняется после моей симпатии //</t>
+    <t xml:space="preserve">Разбор 18 — Катастрофизация | // подруга отстраняется после моей симпатии //</t>
   </si>
   <si>
     <t xml:space="preserve">Общение со мной становится опасным</t>
@@ -1754,6 +1821,94 @@
   </si>
   <si>
     <t xml:space="preserve">16. Если вы видите, что более гибкий взгляд помогает вам сохранять спокойствие и улучшать общение, насколько теперь важно для вас отпускать прежние категоричные мысли в подобных ситуациях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 19 — Гиперобобщение | // чувство беззащитности перед агрессией //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меня каждый может обидеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большитство ко мне относятся с уважением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Скажите, какие доказательства у вас есть, что эта мысль — «меня каждый может обидеть» — действительно точна?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А есть ли примеры из вашей жизни, когда люди не пытались вас обидеть, даже если у них была такая возможность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если такое происходило, как вы думаете, что отличало эти ситуации от тех, где вас обижали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если в некоторых ситуациях люди уважали ваши границы, можно ли сказать, что не каждый человек стремится вас обидеть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если это так, как вам кажется, почему мысль «меня каждый может обидеть» кажется вам настолько убедительной?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Но если бы ваша неспособность защищаться всегда вела к тому, что вас обижали, могли бы тогда быть те примеры из вашей жизни, где люди всё же уважали ваши границы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если такие примеры есть, как вам кажется, может ли быть так, что ваше умение защищаться — это лишь один из факторов, но не единственная причина, определяющая, обидит вас человек или нет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Как вы думаете, какую роль в вашем восприятии играет прошлый негативный опыт? Влияет ли он на то, как вы сейчас оцениваете людей и их намерения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Если прошлый опыт так сильно влияет на ваши нынешние ощущения, как вы думаете, насколько он точно отражает реальность того, что происходит с вами сейчас?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если прошлый опыт не полностью соответствует тому, что происходит сейчас, как может измениться ваше восприятие других людей, если вы будете исходить больше из текущей реальности, а не из прошлого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если ваше восприятие других людей улучшится, как это может повлиять на ваше убеждение, что «меня каждый может обидеть»?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Если не все люди склонны вас обижать, как бы вы могли переформулировать свою мысль так, чтобы она лучше отражала реальность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбор 20 — Персонализация | // желание причинять другим эмоциональную боль //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие заслуживают такую же боль,
+которую приходится терпеть мне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучше через диалог просить поддержики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Что заставляет вас считать, что другие действительно заслуживают такую же боль, которую испытываете вы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. А если вы выплеснете свои эмоции на других, как это повлияет на вашу собственную боль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. А есть ли у вас примеры из жизни, когда причинение страданий другим действительно уменьшало вашу боль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если это приводило к чувству опустошённости, уменьшалась ли на самом деле ваша боль, или она просто принимала другую форму?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Если боль просто меняет форму, а не исчезает, то приносит ли это вам ту облегчённость, которую вы изначально ищете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Если это не приносит облегчения, как тогда можно объяснить желание заставить других страдать? Что оно на самом деле вам даёт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Если цель — получить эмоциональную связь, то действительно ли страдания других помогают вам почувствовать такую связь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Если страдания других отдаляют их от вас, как ещё можно было бы выразить свою боль, чтобы достичь той связи, которой вы ищете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Когда вы представляете себе, что открыто говорите о своей боли словами, как вы думаете, как это может повлиять на ваши отношения с другими?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Если открытое выражение своей боли может укрепить ваши отношения и принести поддержку, то как теперь вы смотрите на идею причинения страданий другим, чтобы добиться эмоциональной связи?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Если эта идея кажется безосновательной, как вы теперь относитесь к мысли, что другие заслуживают такую же боль, которую приходится терпеть вам?</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2448,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2509,10 +2664,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,6 +3176,58 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>45651</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>45651</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3037,10 +3244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A255" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A293" activeCellId="0" sqref="A293"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L315" activeCellId="0" sqref="L315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3058,63 +3265,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+        <v>168</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -3204,7 +3415,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3214,7 +3425,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,7 +3436,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -3233,52 +3444,52 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3288,18 +3499,18 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -3307,57 +3518,57 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3367,18 +3578,18 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="27" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -3386,77 +3597,77 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3466,18 +3677,18 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="27" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -3485,62 +3696,62 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3550,7 +3761,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3561,7 +3772,7 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="27" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -3569,62 +3780,62 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="30" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -3634,7 +3845,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3645,7 +3856,7 @@
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="27" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
@@ -3653,52 +3864,52 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -3708,7 +3919,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3727,62 +3938,62 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="28" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -3792,7 +4003,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3803,7 +4014,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
       <c r="E110" s="27" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
@@ -3811,62 +4022,62 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="28" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="28" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -3876,7 +4087,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3887,7 +4098,7 @@
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="27" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
@@ -3895,77 +4106,77 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="28" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -3975,7 +4186,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3986,7 +4197,7 @@
       <c r="C141" s="29"/>
       <c r="D141" s="29"/>
       <c r="E141" s="27" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
@@ -3994,82 +4205,82 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -4079,7 +4290,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4090,7 +4301,7 @@
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="27" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
@@ -4098,72 +4309,72 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="28" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="28" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="28" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="28" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="28" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="28" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="28" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="28" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="28" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="28" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="28" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -4173,7 +4384,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4184,7 +4395,7 @@
       <c r="C175" s="29"/>
       <c r="D175" s="29"/>
       <c r="E175" s="27" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F175" s="27"/>
       <c r="G175" s="27"/>
@@ -4192,57 +4403,57 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="28" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="28" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="28" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="28" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="28" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="28" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="28" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="28" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="28" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="28" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -4252,18 +4463,18 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="29" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
       <c r="D188" s="29"/>
       <c r="E188" s="27" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F188" s="27"/>
       <c r="G188" s="27"/>
@@ -4271,72 +4482,72 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="28" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="28" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="28" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="28" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="28" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="28" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="28" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="28" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="28" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="28" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="28" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="28" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="28" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="25" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
@@ -4346,18 +4557,18 @@
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
       <c r="I203" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="29" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="27" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F204" s="27"/>
       <c r="G204" s="27"/>
@@ -4365,82 +4576,82 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="28" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="28" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="28" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="28" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="28" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="28" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="28" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="28" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="28" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="28" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="28" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="28" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="28" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B221" s="25"/>
       <c r="C221" s="25"/>
@@ -4450,7 +4661,7 @@
       <c r="G221" s="25"/>
       <c r="H221" s="25"/>
       <c r="I221" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4461,7 +4672,7 @@
       <c r="C222" s="29"/>
       <c r="D222" s="29"/>
       <c r="E222" s="27" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F222" s="27"/>
       <c r="G222" s="27"/>
@@ -4469,67 +4680,67 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="28" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="28" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="28" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="28" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="28" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="28" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="28" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="28" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="28" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="28" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="28" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="28" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
@@ -4539,18 +4750,18 @@
       <c r="G236" s="25"/>
       <c r="H236" s="25"/>
       <c r="I236" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="29" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
       <c r="E237" s="27" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F237" s="27"/>
       <c r="G237" s="27"/>
@@ -4558,107 +4769,107 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="28" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="28" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="28" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="28" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="28" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="28" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="28" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="28" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="28" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="28" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="28" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="28" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="28" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="28" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="28" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="28" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="28" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="28" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="28" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="28" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
@@ -4668,18 +4879,18 @@
       <c r="G259" s="25"/>
       <c r="H259" s="25"/>
       <c r="I259" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="29" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
       <c r="D260" s="29"/>
       <c r="E260" s="27" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
@@ -4687,67 +4898,67 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="28" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="28" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="28" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="28" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="28" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="28" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="28" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="28" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="28" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="28" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="28" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="28" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="28" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,7 +4966,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="25" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B275" s="25"/>
       <c r="C275" s="25"/>
@@ -4765,105 +4976,284 @@
       <c r="G275" s="25"/>
       <c r="H275" s="25"/>
       <c r="I275" s="24" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="29" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
       <c r="D276" s="29"/>
       <c r="E276" s="27" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F276" s="27"/>
       <c r="G276" s="27"/>
       <c r="H276" s="27"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="32" t="s">
-        <v>414</v>
+      <c r="A277" s="28" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="32" t="s">
-        <v>415</v>
+      <c r="A278" s="28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="32" t="s">
-        <v>416</v>
+      <c r="A279" s="28" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="32" t="s">
-        <v>417</v>
+      <c r="A280" s="28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="32" t="s">
-        <v>418</v>
+      <c r="A281" s="28" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="32" t="s">
-        <v>419</v>
+      <c r="A282" s="28" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="32" t="s">
-        <v>420</v>
+      <c r="A283" s="28" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="32" t="s">
-        <v>421</v>
+      <c r="A284" s="28" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="32" t="s">
-        <v>422</v>
+      <c r="A285" s="28" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="32" t="s">
-        <v>423</v>
+      <c r="A286" s="28" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="32" t="s">
-        <v>424</v>
+      <c r="A287" s="28" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="32" t="s">
-        <v>425</v>
+      <c r="A288" s="28" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="32" t="s">
-        <v>426</v>
+      <c r="A289" s="28" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="32" t="s">
-        <v>427</v>
+      <c r="A290" s="28" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="32" t="s">
-        <v>428</v>
+      <c r="A291" s="28" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="32" t="s">
-        <v>429</v>
-      </c>
+      <c r="A292" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B294" s="25"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="25"/>
+      <c r="E294" s="25"/>
+      <c r="F294" s="25"/>
+      <c r="G294" s="25"/>
+      <c r="H294" s="25"/>
+      <c r="I294" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="F295" s="27"/>
+      <c r="G295" s="27"/>
+      <c r="H295" s="27"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="28"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="25"/>
+      <c r="E309" s="25"/>
+      <c r="F309" s="25"/>
+      <c r="G309" s="25"/>
+      <c r="H309" s="25"/>
+      <c r="I309" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B310" s="29"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="F310" s="27"/>
+      <c r="G310" s="27"/>
+      <c r="H310" s="27"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="32" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="60">
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:H14"/>
@@ -4918,6 +5308,12 @@
     <mergeCell ref="A275:H275"/>
     <mergeCell ref="A276:D276"/>
     <mergeCell ref="E276:H276"/>
+    <mergeCell ref="A294:H294"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="E295:H295"/>
+    <mergeCell ref="A309:H309"/>
+    <mergeCell ref="A310:D310"/>
+    <mergeCell ref="E310:H310"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="A13" display="1"/>
@@ -4938,6 +5334,8 @@
     <hyperlink ref="D2" location="A236" display="16"/>
     <hyperlink ref="E2" location="A259" display="17"/>
     <hyperlink ref="F2" location="A275" display="18"/>
+    <hyperlink ref="G2" location="A294" display="19"/>
+    <hyperlink ref="H2" location="A309" display="20"/>
     <hyperlink ref="I13" location="A1" display="Вверх"/>
     <hyperlink ref="I25" location="A1" display="Вверх"/>
     <hyperlink ref="I38" location="A1" display="Вверх"/>
@@ -4956,6 +5354,8 @@
     <hyperlink ref="I236" location="A1" display="Вверх"/>
     <hyperlink ref="I259" location="A1" display="Вверх"/>
     <hyperlink ref="I275" location="A1" display="Вверх"/>
+    <hyperlink ref="I294" location="A1" display="Вверх"/>
+    <hyperlink ref="I309" location="A1" display="Вверх"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
